--- a/data/trans_dic/P10_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,35%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,09; 97,52</t>
+          <t>89,85; 97,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,96; 98,84</t>
+          <t>92,45; 98,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,98; 96,43</t>
+          <t>87,34; 96,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,75; 97,29</t>
+          <t>89,37; 97,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,83; 96,24</t>
+          <t>90,68; 96,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,97; 97,66</t>
+          <t>92,25; 97,49</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,28%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,0; 96,15</t>
+          <t>79,88; 96,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,4; 96,61</t>
+          <t>78,39; 96,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,94; 96,24</t>
+          <t>88,48; 96,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,2; 95,05</t>
+          <t>86,32; 95,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,49; 95,2</t>
+          <t>86,64; 95,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,73; 94,86</t>
+          <t>83,7; 94,57</t>
         </is>
       </c>
     </row>
@@ -761,12 +762,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,17 +777,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>90,92%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,06; 93,63</t>
+          <t>82,76; 93,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,94; 92,9</t>
+          <t>77,24; 92,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,5; 95,33</t>
+          <t>89,22; 95,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,32; 96,8</t>
+          <t>91,32; 96,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,24; 93,79</t>
+          <t>88,24; 93,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,81; 93,99</t>
+          <t>86,05; 93,54</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>88,99%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,17; 91,02</t>
+          <t>83,38; 90,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,03; 91,41</t>
+          <t>80,1; 91,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,82; 92,39</t>
+          <t>85,4; 91,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,99; 93,72</t>
+          <t>86,78; 93,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,53; 90,66</t>
+          <t>85,53; 90,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 91,63</t>
+          <t>85,45; 91,71</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>81,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,17 +937,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>82,15%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,63; 85,95</t>
+          <t>72,93; 85,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,06; 87,12</t>
+          <t>74,07; 86,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,23; 84,56</t>
+          <t>73,63; 84,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,94; 87,4</t>
+          <t>77,3; 87,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,56; 84,36</t>
+          <t>75,77; 83,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,84; 85,93</t>
+          <t>77,86; 85,76</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61,09%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>59,53%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,26; 68,79</t>
+          <t>53,55; 67,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,2; 75,75</t>
+          <t>59,78; 75,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,79; 52,1</t>
+          <t>40,75; 52,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,23; 57,67</t>
+          <t>45,37; 59,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,53; 57,38</t>
+          <t>47,93; 56,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,38; 63,38</t>
+          <t>54,53; 64,91</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1082,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,93; 86,53</t>
+          <t>82,06; 86,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,16; 87,88</t>
+          <t>82,39; 87,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,79; 82,88</t>
+          <t>78,84; 82,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,54; 85,08</t>
+          <t>81,16; 85,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,11; 84,28</t>
+          <t>81,12; 84,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,56; 86,06</t>
+          <t>82,62; 86,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>486189</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>483958</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>430661</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>441728</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>916851</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>925686</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>460903; 501084</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>464180; 495471</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>404285; 444856</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>418945; 456980</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>884893; 939665</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>895640; 946484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>518444</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>522182</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>482578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>474898</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1001022</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>997080</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>450033; 544296</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>449432; 551174</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>459092; 499397</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>448046; 493226</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>937713; 1030981</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>914312; 1033011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>607780</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>597985</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>644303</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>673886</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1252082</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1271871</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>559356; 633761</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>530162; 633048</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>619350; 662130</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>650629; 689413</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1208992; 1282181</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1203694; 1308480</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>559453</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>564174</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>627204</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>621944</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1186658</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1186118</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>532342; 579359</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>518440; 590466</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>600572; 645295</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>595004; 642827</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1147631; 1217076</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1138951; 1222331</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>413242</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>405356</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>400027</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>419745</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>813270</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>825101</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>373369; 440216</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>366859; 430777</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>369927; 423392</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>393516; 445400</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>768585; 849802</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>781954; 861301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>334032</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>372617</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>338516</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>379142</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>672547</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>751759</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>292842; 369003</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>325926; 412481</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>297897; 382738</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>325658; 430585</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>612506; 727102</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>688682; 819720</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1315.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2468.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2919140</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2946273</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2923289</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3011342</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5842429</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5957615</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2830825; 2991824</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2841943; 3034546</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2848279; 2995261</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2932078; 3084251</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5728712; 5939556</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5834876; 6073992</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>